--- a/沟通管理计划.xlsx
+++ b/沟通管理计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noGames\InnovativePractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29631278-052D-49FD-851C-86CD57FE8358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5BD433-13D6-40EA-A842-DDCCA4D100C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="263" windowWidth="19396" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>沟通内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,58 @@
   </si>
   <si>
     <t>沟通管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品实时获取数据的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品主要功能确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品可靠性和可用性需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两周一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品性能要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来功能拓展需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下正式访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上正式访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上非正式访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下非正式访谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品需求说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +119,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
@@ -82,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,16 +157,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,21 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -419,7 +516,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,9 +530,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="E4:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/沟通管理计划.xlsx
+++ b/沟通管理计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noGames\InnovativePractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5BD433-13D6-40EA-A842-DDCCA4D100C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948177EB-39FF-4BAD-9A64-F5353D4FB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="263" windowWidth="19396" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>沟通内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,23 +79,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线下正式访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上正式访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上非正式访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下非正式访谈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品需求说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上腾讯会议讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信沟通交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小范围问卷调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法实现或难以实现的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>择时电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据需求说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展功能文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下交互式讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品开发进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性开展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度确认文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品阶段性开发风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上专题会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分析报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,9 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,107 +554,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/沟通管理计划.xlsx
+++ b/沟通管理计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noGames\InnovativePractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948177EB-39FF-4BAD-9A64-F5353D4FB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B53FBE-359B-4B51-A80E-76E9227DE46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="263" windowWidth="19396" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1470" windowWidth="14400" windowHeight="7553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
